--- a/data/pca/factorExposure/factorExposure_2009-09-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-15.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01719709518069639</v>
+        <v>0.01667156973953727</v>
       </c>
       <c r="C2">
-        <v>-0.001764980749142604</v>
+        <v>-0.0008684304548691425</v>
       </c>
       <c r="D2">
-        <v>0.0007825143686919912</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009065222074563803</v>
+      </c>
+      <c r="E2">
+        <v>0.001715255921260684</v>
+      </c>
+      <c r="F2">
+        <v>0.01265146672923387</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.09770902973722935</v>
+        <v>0.09393339355570432</v>
       </c>
       <c r="C4">
-        <v>-0.02128300338495838</v>
+        <v>-0.01448784378841704</v>
       </c>
       <c r="D4">
-        <v>-0.06821659315998471</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08420655304719848</v>
+      </c>
+      <c r="E4">
+        <v>0.02868405499706174</v>
+      </c>
+      <c r="F4">
+        <v>-0.03215819098898087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.145541933707246</v>
+        <v>0.1590502882008099</v>
       </c>
       <c r="C6">
-        <v>-0.02648150524524674</v>
+        <v>-0.0265910100601733</v>
       </c>
       <c r="D6">
-        <v>0.02207297959414994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02378234965691736</v>
+      </c>
+      <c r="E6">
+        <v>0.01062199082544153</v>
+      </c>
+      <c r="F6">
+        <v>-0.04270369775054358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06646697002896028</v>
+        <v>0.0635636236695529</v>
       </c>
       <c r="C7">
-        <v>-0.003589946241489946</v>
+        <v>0.001645230454119372</v>
       </c>
       <c r="D7">
-        <v>-0.03846298567759682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05242574478004101</v>
+      </c>
+      <c r="E7">
+        <v>0.01208405097363385</v>
+      </c>
+      <c r="F7">
+        <v>-0.0473381378752319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06503218516475812</v>
+        <v>0.05758930813295133</v>
       </c>
       <c r="C8">
-        <v>0.009835544750070107</v>
+        <v>0.01326868652537464</v>
       </c>
       <c r="D8">
-        <v>-0.01764842044060482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03244594797165537</v>
+      </c>
+      <c r="E8">
+        <v>0.01796406396568305</v>
+      </c>
+      <c r="F8">
+        <v>0.02669153452687856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.07728604562026445</v>
+        <v>0.07097815998859827</v>
       </c>
       <c r="C9">
-        <v>-0.01789388387350816</v>
+        <v>-0.01024522537902248</v>
       </c>
       <c r="D9">
-        <v>-0.06841752017033337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08701445513759129</v>
+      </c>
+      <c r="E9">
+        <v>0.02323779524035405</v>
+      </c>
+      <c r="F9">
+        <v>-0.04755781005206568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08352220746420112</v>
+        <v>0.0914347039321043</v>
       </c>
       <c r="C10">
-        <v>-0.009636826021719407</v>
+        <v>-0.0209575445267861</v>
       </c>
       <c r="D10">
-        <v>0.1702242269210729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1642463989776055</v>
+      </c>
+      <c r="E10">
+        <v>-0.03280217191133752</v>
+      </c>
+      <c r="F10">
+        <v>0.05535793924143347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09407151744833303</v>
+        <v>0.0880937202176947</v>
       </c>
       <c r="C11">
-        <v>-0.01848681162993629</v>
+        <v>-0.01032303488115759</v>
       </c>
       <c r="D11">
-        <v>-0.09720155683540894</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1171818910321553</v>
+      </c>
+      <c r="E11">
+        <v>0.04577928080089033</v>
+      </c>
+      <c r="F11">
+        <v>-0.02314409568353548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1011661195711414</v>
+        <v>0.09209006445791293</v>
       </c>
       <c r="C12">
-        <v>-0.01692765237593872</v>
+        <v>-0.007722271827331531</v>
       </c>
       <c r="D12">
-        <v>-0.09717568695917037</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1317386451011938</v>
+      </c>
+      <c r="E12">
+        <v>0.04571188711503811</v>
+      </c>
+      <c r="F12">
+        <v>-0.02973527681863055</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.0433414764466932</v>
+        <v>0.04160149591075788</v>
       </c>
       <c r="C13">
-        <v>-0.006444172884626371</v>
+        <v>-0.002409416244134377</v>
       </c>
       <c r="D13">
-        <v>-0.03235384987284504</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05325007013661996</v>
+      </c>
+      <c r="E13">
+        <v>-0.004484645433910393</v>
+      </c>
+      <c r="F13">
+        <v>-0.002709094157610115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02234265239376796</v>
+        <v>0.02385859001534042</v>
       </c>
       <c r="C14">
-        <v>-0.01537189819951825</v>
+        <v>-0.01377372819202905</v>
       </c>
       <c r="D14">
-        <v>-0.02494817090302945</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03308121502426962</v>
+      </c>
+      <c r="E14">
+        <v>0.01854104493187968</v>
+      </c>
+      <c r="F14">
+        <v>-0.01379278137401579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03606775167380388</v>
+        <v>0.03284281085831337</v>
       </c>
       <c r="C15">
-        <v>-0.008144707945272127</v>
+        <v>-0.004608812250630013</v>
       </c>
       <c r="D15">
-        <v>-0.02594916028268071</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04530447542426437</v>
+      </c>
+      <c r="E15">
+        <v>0.006044026021471363</v>
+      </c>
+      <c r="F15">
+        <v>-0.0252128699583419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08199362510441782</v>
+        <v>0.07425932451056055</v>
       </c>
       <c r="C16">
-        <v>-0.009535467544261727</v>
+        <v>-0.0008867100442389215</v>
       </c>
       <c r="D16">
-        <v>-0.1001458935785762</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1276467797949823</v>
+      </c>
+      <c r="E16">
+        <v>0.0600638920154752</v>
+      </c>
+      <c r="F16">
+        <v>-0.02722658330922738</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006922305563810654</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0001740902112919011</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001240302317569998</v>
+      </c>
+      <c r="E17">
+        <v>0.0006968460185080767</v>
+      </c>
+      <c r="F17">
+        <v>0.001249708702175849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.00745035027122413</v>
+        <v>0.03626062134354773</v>
       </c>
       <c r="C18">
-        <v>0.001702111650496588</v>
+        <v>0.002990176956227179</v>
       </c>
       <c r="D18">
-        <v>-0.01169458180202462</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01628861739921814</v>
+      </c>
+      <c r="E18">
+        <v>-0.008362323399519454</v>
+      </c>
+      <c r="F18">
+        <v>0.009715707858262356</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06372023163776853</v>
+        <v>0.06171231063449446</v>
       </c>
       <c r="C20">
-        <v>-0.007314438249193866</v>
+        <v>4.372187564186703e-05</v>
       </c>
       <c r="D20">
-        <v>-0.04764569072596882</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07835373788111522</v>
+      </c>
+      <c r="E20">
+        <v>0.05620033986787893</v>
+      </c>
+      <c r="F20">
+        <v>-0.02644529341721688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04397021332001425</v>
+        <v>0.040678886302029</v>
       </c>
       <c r="C21">
-        <v>-0.01037284538825237</v>
+        <v>-0.006385755323482551</v>
       </c>
       <c r="D21">
-        <v>-0.01704476163988517</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03809595072407487</v>
+      </c>
+      <c r="E21">
+        <v>-0.001458764305815906</v>
+      </c>
+      <c r="F21">
+        <v>0.02414857959547399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04186794225256816</v>
+        <v>0.04307027009831235</v>
       </c>
       <c r="C22">
-        <v>-0.0003096817655584945</v>
+        <v>-0.0002265565309891226</v>
       </c>
       <c r="D22">
-        <v>0.007994438451346153</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.005172519218055303</v>
+      </c>
+      <c r="E22">
+        <v>0.038145178133568</v>
+      </c>
+      <c r="F22">
+        <v>0.03696403599799229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04182980104212104</v>
+        <v>0.04304599195072761</v>
       </c>
       <c r="C23">
-        <v>-0.0003003942385295363</v>
+        <v>-0.0002180460848862332</v>
       </c>
       <c r="D23">
-        <v>0.007966285829080063</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.005188173518667182</v>
+      </c>
+      <c r="E23">
+        <v>0.03832864953822691</v>
+      </c>
+      <c r="F23">
+        <v>0.03692623990679317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08477977199517887</v>
+        <v>0.08001874175869125</v>
       </c>
       <c r="C24">
-        <v>-0.009921180547758656</v>
+        <v>-0.001563814297688897</v>
       </c>
       <c r="D24">
-        <v>-0.1055381508899784</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1206128662339316</v>
+      </c>
+      <c r="E24">
+        <v>0.04833278808722228</v>
+      </c>
+      <c r="F24">
+        <v>-0.02818492832186657</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09152826679141719</v>
+        <v>0.08529062442437192</v>
       </c>
       <c r="C25">
-        <v>-0.01224404061853194</v>
+        <v>-0.004279949181313136</v>
       </c>
       <c r="D25">
-        <v>-0.08985441979647996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1096760090023802</v>
+      </c>
+      <c r="E25">
+        <v>0.03189352115498423</v>
+      </c>
+      <c r="F25">
+        <v>-0.0277420804694881</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05913171754868653</v>
+        <v>0.0588727749970193</v>
       </c>
       <c r="C26">
-        <v>-0.01838770263410629</v>
+        <v>-0.01437246417348306</v>
       </c>
       <c r="D26">
-        <v>-0.01617273241978372</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04115049753795791</v>
+      </c>
+      <c r="E26">
+        <v>0.02831075325001676</v>
+      </c>
+      <c r="F26">
+        <v>0.007317702147249104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1310937191831441</v>
+        <v>0.1424093101198252</v>
       </c>
       <c r="C28">
-        <v>-0.006833600732345773</v>
+        <v>-0.02240061820740219</v>
       </c>
       <c r="D28">
-        <v>0.2799028053087654</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2613053909792454</v>
+      </c>
+      <c r="E28">
+        <v>-0.06732813756586224</v>
+      </c>
+      <c r="F28">
+        <v>-0.007304566854546917</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02770570688203507</v>
+        <v>0.02851381329734664</v>
       </c>
       <c r="C29">
-        <v>-0.01003204483849553</v>
+        <v>-0.008669279394866152</v>
       </c>
       <c r="D29">
-        <v>-0.02082959111839575</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03130524664261222</v>
+      </c>
+      <c r="E29">
+        <v>0.01368518801820469</v>
+      </c>
+      <c r="F29">
+        <v>0.01296930129041649</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.07088490469408892</v>
+        <v>0.05865551732455784</v>
       </c>
       <c r="C30">
-        <v>-0.01020785423123752</v>
+        <v>-0.002456831603914622</v>
       </c>
       <c r="D30">
-        <v>-0.07546799883121208</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08938181953510931</v>
+      </c>
+      <c r="E30">
+        <v>0.01535225603803327</v>
+      </c>
+      <c r="F30">
+        <v>-0.07747402973603058</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05179870116359146</v>
+        <v>0.05111609532071829</v>
       </c>
       <c r="C31">
-        <v>-0.01698058456460882</v>
+        <v>-0.01549716562098915</v>
       </c>
       <c r="D31">
-        <v>-0.02190219353889508</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02486953588475817</v>
+      </c>
+      <c r="E31">
+        <v>0.02869758892745037</v>
+      </c>
+      <c r="F31">
+        <v>0.00135643061652942</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04548397451178733</v>
+        <v>0.05124821750798902</v>
       </c>
       <c r="C32">
-        <v>-0.001882597341470704</v>
+        <v>0.001891800149968303</v>
       </c>
       <c r="D32">
-        <v>-0.02310377954441947</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03636280311336205</v>
+      </c>
+      <c r="E32">
+        <v>0.03424885675441073</v>
+      </c>
+      <c r="F32">
+        <v>-0.003005135923528963</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09539193675053137</v>
+        <v>0.08846731357158856</v>
       </c>
       <c r="C33">
-        <v>-0.01464985586501176</v>
+        <v>-0.00651630402497589</v>
       </c>
       <c r="D33">
-        <v>-0.08026235258227123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1017972155501656</v>
+      </c>
+      <c r="E33">
+        <v>0.04296541771907086</v>
+      </c>
+      <c r="F33">
+        <v>-0.03879197069703567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.07543845081955357</v>
+        <v>0.06788403024098998</v>
       </c>
       <c r="C34">
-        <v>-0.01677032816870253</v>
+        <v>-0.01000252758955957</v>
       </c>
       <c r="D34">
-        <v>-0.0870033331075299</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1098941977839489</v>
+      </c>
+      <c r="E34">
+        <v>0.03414752370920741</v>
+      </c>
+      <c r="F34">
+        <v>-0.0341436827575663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02364290459905333</v>
+        <v>0.02528650774985637</v>
       </c>
       <c r="C35">
-        <v>-0.002575496136180233</v>
+        <v>-0.002530431522115026</v>
       </c>
       <c r="D35">
-        <v>-0.006377423044240661</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01153901142619229</v>
+      </c>
+      <c r="E35">
+        <v>0.01196712475420963</v>
+      </c>
+      <c r="F35">
+        <v>-0.001094155778372175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02278033886589485</v>
+        <v>0.02750408099423622</v>
       </c>
       <c r="C36">
-        <v>-0.00892229676249583</v>
+        <v>-0.006782825602102802</v>
       </c>
       <c r="D36">
-        <v>-0.03140068467578837</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.040014107589677</v>
+      </c>
+      <c r="E36">
+        <v>0.01667399585197786</v>
+      </c>
+      <c r="F36">
+        <v>-0.01580657853913926</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0004364782892395848</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006113981999045512</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002367445867145843</v>
+      </c>
+      <c r="E37">
+        <v>-0.001111701592089121</v>
+      </c>
+      <c r="F37">
+        <v>0.0001122102481328451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.0003923047128411551</v>
+        <v>0.0003522298495316391</v>
       </c>
       <c r="C38">
-        <v>-7.3567037400479e-05</v>
+        <v>-0.0001241590733705616</v>
       </c>
       <c r="D38">
-        <v>0.001915081356024414</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.001382072111877056</v>
+      </c>
+      <c r="E38">
+        <v>-0.0008983167300861618</v>
+      </c>
+      <c r="F38">
+        <v>-0.0003507438076501176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1199247468291575</v>
+        <v>0.1041087299488992</v>
       </c>
       <c r="C39">
-        <v>-0.02574128039908959</v>
+        <v>-0.01544731249425315</v>
       </c>
       <c r="D39">
-        <v>-0.1427472870338029</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1547206529575215</v>
+      </c>
+      <c r="E39">
+        <v>0.05913663136708985</v>
+      </c>
+      <c r="F39">
+        <v>-0.0302737522020772</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03584223483901763</v>
+        <v>0.04134348232879757</v>
       </c>
       <c r="C40">
-        <v>-0.01015398122923423</v>
+        <v>-0.007089691679114582</v>
       </c>
       <c r="D40">
-        <v>-0.0001902452274514415</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03123374820454228</v>
+      </c>
+      <c r="E40">
+        <v>0.001885204107748996</v>
+      </c>
+      <c r="F40">
+        <v>0.01590912681673862</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02505069700476764</v>
+        <v>0.02779579496552084</v>
       </c>
       <c r="C41">
-        <v>-0.007537770147509067</v>
+        <v>-0.006815513976221207</v>
       </c>
       <c r="D41">
-        <v>-0.007653813368382857</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01126403534770289</v>
+      </c>
+      <c r="E41">
+        <v>0.01254004391888332</v>
+      </c>
+      <c r="F41">
+        <v>0.005800547738283081</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04057356729586097</v>
+        <v>0.04056300128805101</v>
       </c>
       <c r="C43">
-        <v>-0.008483830843330665</v>
+        <v>-0.007024197995915682</v>
       </c>
       <c r="D43">
-        <v>-0.01152353217243947</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0189077351566678</v>
+      </c>
+      <c r="E43">
+        <v>0.02531675911512304</v>
+      </c>
+      <c r="F43">
+        <v>0.01206146504761833</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.08116448531144671</v>
+        <v>0.07917615402279522</v>
       </c>
       <c r="C44">
-        <v>-0.02771162384357581</v>
+        <v>-0.01914796840788808</v>
       </c>
       <c r="D44">
-        <v>-0.07740120534139129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09763740534246644</v>
+      </c>
+      <c r="E44">
+        <v>0.06119935178545103</v>
+      </c>
+      <c r="F44">
+        <v>-0.1573280107178991</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01859448490901859</v>
+        <v>0.02301579756425673</v>
       </c>
       <c r="C46">
-        <v>-0.003952999815634929</v>
+        <v>-0.003198105745749787</v>
       </c>
       <c r="D46">
-        <v>-0.001923720533256669</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01372887518504733</v>
+      </c>
+      <c r="E46">
+        <v>0.02616020046820164</v>
+      </c>
+      <c r="F46">
+        <v>0.005460880757720835</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05189947665066452</v>
+        <v>0.05278014503397136</v>
       </c>
       <c r="C47">
-        <v>-0.004599008526513087</v>
+        <v>-0.003606187056763652</v>
       </c>
       <c r="D47">
-        <v>-0.002765687357717927</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01250644878294634</v>
+      </c>
+      <c r="E47">
+        <v>0.02398320170133227</v>
+      </c>
+      <c r="F47">
+        <v>0.03181530841678556</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04667449489551332</v>
+        <v>0.05039475880427258</v>
       </c>
       <c r="C48">
-        <v>-0.006060927108499414</v>
+        <v>-0.002173095090725251</v>
       </c>
       <c r="D48">
-        <v>-0.03721671543126632</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05061956618143289</v>
+      </c>
+      <c r="E48">
+        <v>-0.004735583760939211</v>
+      </c>
+      <c r="F48">
+        <v>-0.009717953846878244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2020861512668636</v>
+        <v>0.1999928678207598</v>
       </c>
       <c r="C49">
-        <v>-0.01885245799982047</v>
+        <v>-0.01886204087938388</v>
       </c>
       <c r="D49">
-        <v>0.007424665409519274</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007174050221780132</v>
+      </c>
+      <c r="E49">
+        <v>0.02997616620289581</v>
+      </c>
+      <c r="F49">
+        <v>-0.03832749320686742</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0514913184536966</v>
+        <v>0.05141442440110568</v>
       </c>
       <c r="C50">
-        <v>-0.01306389481388748</v>
+        <v>-0.01120029746255844</v>
       </c>
       <c r="D50">
-        <v>-0.02203128706911311</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02434583234254603</v>
+      </c>
+      <c r="E50">
+        <v>0.03011472137735778</v>
+      </c>
+      <c r="F50">
+        <v>-0.009379941082890489</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1565609348381045</v>
+        <v>0.1486821423152166</v>
       </c>
       <c r="C52">
-        <v>-0.01900527174646573</v>
+        <v>-0.0172719751833728</v>
       </c>
       <c r="D52">
-        <v>-0.05560666415240543</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04212955806899809</v>
+      </c>
+      <c r="E52">
+        <v>0.02087049038339344</v>
+      </c>
+      <c r="F52">
+        <v>-0.04355199318459518</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1711651452897714</v>
+        <v>0.1712620853674963</v>
       </c>
       <c r="C53">
-        <v>-0.01768969027909326</v>
+        <v>-0.01978815236325586</v>
       </c>
       <c r="D53">
-        <v>-0.03120607428680956</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004918451700829224</v>
+      </c>
+      <c r="E53">
+        <v>0.02916100619510244</v>
+      </c>
+      <c r="F53">
+        <v>-0.0751703442294665</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02135973734872894</v>
+        <v>0.02034468404573724</v>
       </c>
       <c r="C54">
-        <v>-0.01272187694086782</v>
+        <v>-0.01119526578977396</v>
       </c>
       <c r="D54">
-        <v>-0.02633866262499869</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03445080307924936</v>
+      </c>
+      <c r="E54">
+        <v>0.02221481477028379</v>
+      </c>
+      <c r="F54">
+        <v>0.005398230883997397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1164778804097608</v>
+        <v>0.1146934875695947</v>
       </c>
       <c r="C55">
-        <v>-0.01638757291330602</v>
+        <v>-0.0174694953546356</v>
       </c>
       <c r="D55">
-        <v>-0.02471792587344167</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007357290210245932</v>
+      </c>
+      <c r="E55">
+        <v>0.02421698061832814</v>
+      </c>
+      <c r="F55">
+        <v>-0.04770511356353294</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1783796311524401</v>
+        <v>0.1768340526237324</v>
       </c>
       <c r="C56">
-        <v>-0.01580730850633129</v>
+        <v>-0.01759690377634189</v>
       </c>
       <c r="D56">
-        <v>-0.01702468841324026</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002102738975098193</v>
+      </c>
+      <c r="E56">
+        <v>0.03379863313274722</v>
+      </c>
+      <c r="F56">
+        <v>-0.05287865414548089</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04575540195212327</v>
+        <v>0.04502251399370962</v>
       </c>
       <c r="C58">
-        <v>-0.006617216764664869</v>
+        <v>0.0004249136945969006</v>
       </c>
       <c r="D58">
-        <v>-0.05189182965275034</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07154089075921034</v>
+      </c>
+      <c r="E58">
+        <v>0.03233311216266853</v>
+      </c>
+      <c r="F58">
+        <v>0.03851862588500819</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1635498386840288</v>
+        <v>0.1680699000229351</v>
       </c>
       <c r="C59">
-        <v>-0.008512713816442389</v>
+        <v>-0.02259087684895467</v>
       </c>
       <c r="D59">
-        <v>0.227717403723445</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.217153818395961</v>
+      </c>
+      <c r="E59">
+        <v>-0.04553389033463858</v>
+      </c>
+      <c r="F59">
+        <v>0.03628156189336456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2403626946941295</v>
+        <v>0.2317503088958831</v>
       </c>
       <c r="C60">
-        <v>0.0004490505097765648</v>
+        <v>0.00225434168724203</v>
       </c>
       <c r="D60">
-        <v>-0.05803326851100864</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04129019740155807</v>
+      </c>
+      <c r="E60">
+        <v>0.0087729934241572</v>
+      </c>
+      <c r="F60">
+        <v>0.004642245239742195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09294430142944572</v>
+        <v>0.08012255321560159</v>
       </c>
       <c r="C61">
-        <v>-0.01920583572037166</v>
+        <v>-0.01109460121270873</v>
       </c>
       <c r="D61">
-        <v>-0.09687077098900503</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1178994805929703</v>
+      </c>
+      <c r="E61">
+        <v>0.03893185604306765</v>
+      </c>
+      <c r="F61">
+        <v>-0.01382981713179473</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1725012027614564</v>
+        <v>0.1696506004045914</v>
       </c>
       <c r="C62">
-        <v>-0.01986896153703003</v>
+        <v>-0.02068844826502239</v>
       </c>
       <c r="D62">
-        <v>-0.01113393983611214</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005198868759313693</v>
+      </c>
+      <c r="E62">
+        <v>0.03362006420384247</v>
+      </c>
+      <c r="F62">
+        <v>-0.03611036512384678</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04703551780570604</v>
+        <v>0.04555422756871934</v>
       </c>
       <c r="C63">
-        <v>-0.006517970446008585</v>
+        <v>-0.001617041595170917</v>
       </c>
       <c r="D63">
-        <v>-0.04208400071810122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05924419659820225</v>
+      </c>
+      <c r="E63">
+        <v>0.02325466591672285</v>
+      </c>
+      <c r="F63">
+        <v>-0.003325729657568572</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1076411893747948</v>
+        <v>0.1105612188944067</v>
       </c>
       <c r="C64">
-        <v>-0.01496822805582507</v>
+        <v>-0.01139424468552121</v>
       </c>
       <c r="D64">
-        <v>-0.02730345197437427</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04350942255782744</v>
+      </c>
+      <c r="E64">
+        <v>0.02258926021209004</v>
+      </c>
+      <c r="F64">
+        <v>-0.02492728641190072</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1380357279254506</v>
+        <v>0.1507308367447513</v>
       </c>
       <c r="C65">
-        <v>-0.03187698733010998</v>
+        <v>-0.03411357613723452</v>
       </c>
       <c r="D65">
-        <v>0.04595800872338152</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04408260028535668</v>
+      </c>
+      <c r="E65">
+        <v>0.006553234900147937</v>
+      </c>
+      <c r="F65">
+        <v>-0.03708722495275994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1452668681037842</v>
+        <v>0.1236171467760557</v>
       </c>
       <c r="C66">
-        <v>-0.02319616432735968</v>
+        <v>-0.01335022565454455</v>
       </c>
       <c r="D66">
-        <v>-0.1206904704452859</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1430043241719948</v>
+      </c>
+      <c r="E66">
+        <v>0.06512735026238528</v>
+      </c>
+      <c r="F66">
+        <v>-0.0346355074728602</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06237896358186291</v>
+        <v>0.0575939081032116</v>
       </c>
       <c r="C67">
-        <v>-0.005902066408738274</v>
+        <v>-0.002843721676555624</v>
       </c>
       <c r="D67">
-        <v>-0.05689184906037512</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05535706764207254</v>
+      </c>
+      <c r="E67">
+        <v>0.01651067825762429</v>
+      </c>
+      <c r="F67">
+        <v>0.03114349826054996</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1009049648343578</v>
+        <v>0.1166188954723958</v>
       </c>
       <c r="C68">
-        <v>-0.01687418920874358</v>
+        <v>-0.03313380614955745</v>
       </c>
       <c r="D68">
-        <v>0.2765416306361793</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2612245520999046</v>
+      </c>
+      <c r="E68">
+        <v>-0.08730277110911332</v>
+      </c>
+      <c r="F68">
+        <v>-0.002322022902912342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04124173322249394</v>
+        <v>0.03919353197656106</v>
       </c>
       <c r="C69">
-        <v>-0.0012973783236835</v>
+        <v>-0.001188986828816053</v>
       </c>
       <c r="D69">
-        <v>-0.009281372357546567</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008856450809997429</v>
+      </c>
+      <c r="E69">
+        <v>0.02441416574751625</v>
+      </c>
+      <c r="F69">
+        <v>-0.0006051139262752694</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06526230016093133</v>
+        <v>0.06670190235573127</v>
       </c>
       <c r="C70">
-        <v>0.02319051358002016</v>
+        <v>0.02744576129251204</v>
       </c>
       <c r="D70">
-        <v>0.02538847445754205</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02496852357678151</v>
+      </c>
+      <c r="E70">
+        <v>-0.03183659860172606</v>
+      </c>
+      <c r="F70">
+        <v>0.1866539295613122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1180959383105329</v>
+        <v>0.1363921839326555</v>
       </c>
       <c r="C71">
-        <v>-0.02066768262309745</v>
+        <v>-0.03746751403900428</v>
       </c>
       <c r="D71">
-        <v>0.2954969605146461</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2724289110344678</v>
+      </c>
+      <c r="E71">
+        <v>-0.09746018880708179</v>
+      </c>
+      <c r="F71">
+        <v>-0.007592402983621972</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1370211004519684</v>
+        <v>0.1425744914744793</v>
       </c>
       <c r="C72">
-        <v>-0.02682351238149279</v>
+        <v>-0.02716801450038756</v>
       </c>
       <c r="D72">
-        <v>-0.003232054995122247</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003183072635771475</v>
+      </c>
+      <c r="E72">
+        <v>0.03696712130219893</v>
+      </c>
+      <c r="F72">
+        <v>-0.0319995284725833</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2050153908235984</v>
+        <v>0.2041304091106718</v>
       </c>
       <c r="C73">
-        <v>-0.01449723628203912</v>
+        <v>-0.01294057303058217</v>
       </c>
       <c r="D73">
-        <v>-0.02885868029699244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01632809215274638</v>
+      </c>
+      <c r="E73">
+        <v>0.06202126469002021</v>
+      </c>
+      <c r="F73">
+        <v>-0.03767320751717558</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09130041249952575</v>
+        <v>0.09476862081479151</v>
       </c>
       <c r="C74">
-        <v>-0.01261381048582331</v>
+        <v>-0.01337424689426821</v>
       </c>
       <c r="D74">
-        <v>-0.03136811867283983</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01652141090601083</v>
+      </c>
+      <c r="E74">
+        <v>0.04381130915040365</v>
+      </c>
+      <c r="F74">
+        <v>-0.05846414075513996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1344990873986988</v>
+        <v>0.1274743602596954</v>
       </c>
       <c r="C75">
-        <v>-0.02892994087346626</v>
+        <v>-0.02829658897391207</v>
       </c>
       <c r="D75">
-        <v>-0.03935299784158915</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03040400785523252</v>
+      </c>
+      <c r="E75">
+        <v>0.05808526470608102</v>
+      </c>
+      <c r="F75">
+        <v>-0.02296046826616534</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08015732414224963</v>
+        <v>0.08893376089335528</v>
       </c>
       <c r="C77">
-        <v>-0.01628174820543906</v>
+        <v>-0.008087476093434137</v>
       </c>
       <c r="D77">
-        <v>-0.09767555890187406</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.112797366412367</v>
+      </c>
+      <c r="E77">
+        <v>0.04165410777890153</v>
+      </c>
+      <c r="F77">
+        <v>-0.03432054126040027</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1049925638646149</v>
+        <v>0.1002345810142731</v>
       </c>
       <c r="C78">
-        <v>-0.04787848883628727</v>
+        <v>-0.03931385758314142</v>
       </c>
       <c r="D78">
-        <v>-0.1029234828412084</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1142233001419296</v>
+      </c>
+      <c r="E78">
+        <v>0.07411676221299582</v>
+      </c>
+      <c r="F78">
+        <v>-0.05165300102588726</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1660061562045148</v>
+        <v>0.1636181229131675</v>
       </c>
       <c r="C79">
-        <v>-0.02300716268751435</v>
+        <v>-0.02300607612599119</v>
       </c>
       <c r="D79">
-        <v>-0.01810911203139504</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01471729234492739</v>
+      </c>
+      <c r="E79">
+        <v>0.04631025634430376</v>
+      </c>
+      <c r="F79">
+        <v>-0.01218580969559172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08896700397273585</v>
+        <v>0.08209594145449478</v>
       </c>
       <c r="C80">
-        <v>-0.002264826629266589</v>
+        <v>0.001016272222534378</v>
       </c>
       <c r="D80">
-        <v>-0.04736005100275582</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05699945409049807</v>
+      </c>
+      <c r="E80">
+        <v>0.03590077020349169</v>
+      </c>
+      <c r="F80">
+        <v>0.02279469784984528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.121157094614755</v>
+        <v>0.1187341116674279</v>
       </c>
       <c r="C81">
-        <v>-0.03056648421127261</v>
+        <v>-0.03186143344409201</v>
       </c>
       <c r="D81">
-        <v>-0.04239296712826538</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01565801608478169</v>
+      </c>
+      <c r="E81">
+        <v>0.05734667743273966</v>
+      </c>
+      <c r="F81">
+        <v>-0.01890561501960502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1623825639688287</v>
+        <v>0.1651260055813746</v>
       </c>
       <c r="C82">
-        <v>-0.02286925972711826</v>
+        <v>-0.02487278555610382</v>
       </c>
       <c r="D82">
-        <v>-0.02903191018514071</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004015680829439523</v>
+      </c>
+      <c r="E82">
+        <v>0.02654503815349817</v>
+      </c>
+      <c r="F82">
+        <v>-0.08219153711910379</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07015154452153465</v>
+        <v>0.05862989105055239</v>
       </c>
       <c r="C83">
-        <v>-0.007097596711031373</v>
+        <v>-0.002758131842739753</v>
       </c>
       <c r="D83">
-        <v>-0.02425410091135332</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05052900825540627</v>
+      </c>
+      <c r="E83">
+        <v>0.003019248113819911</v>
+      </c>
+      <c r="F83">
+        <v>0.02948628791333461</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06801777146010296</v>
+        <v>0.05966170330033879</v>
       </c>
       <c r="C84">
-        <v>-0.01535499097063689</v>
+        <v>-0.01130092190491622</v>
       </c>
       <c r="D84">
-        <v>-0.05801685618663636</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06280151380351692</v>
+      </c>
+      <c r="E84">
+        <v>0.007199545620226076</v>
+      </c>
+      <c r="F84">
+        <v>-0.00541754593936292</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1386691960415867</v>
+        <v>0.1355977233910614</v>
       </c>
       <c r="C85">
-        <v>-0.02774929741452343</v>
+        <v>-0.02828296122761226</v>
       </c>
       <c r="D85">
-        <v>-0.0232911377979434</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009177679362580883</v>
+      </c>
+      <c r="E85">
+        <v>0.03654945352783626</v>
+      </c>
+      <c r="F85">
+        <v>-0.04802806256487051</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.100407122771349</v>
+        <v>0.09426282282281126</v>
       </c>
       <c r="C86">
-        <v>0.0007864870282163829</v>
+        <v>0.005669680034499522</v>
       </c>
       <c r="D86">
-        <v>0.03971041777794124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.0437523946528317</v>
+      </c>
+      <c r="E86">
+        <v>0.2306516458579933</v>
+      </c>
+      <c r="F86">
+        <v>0.9032123678363415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1004538792731782</v>
+        <v>0.09461031499836424</v>
       </c>
       <c r="C87">
-        <v>-0.02977659114189044</v>
+        <v>-0.01924524303767301</v>
       </c>
       <c r="D87">
-        <v>-0.06176856999856124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09399358812562721</v>
+      </c>
+      <c r="E87">
+        <v>-0.05372144308165044</v>
+      </c>
+      <c r="F87">
+        <v>-0.04625628338709485</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05949635560630596</v>
+        <v>0.06044393025535343</v>
       </c>
       <c r="C88">
-        <v>-0.006066970631309988</v>
+        <v>-0.002106953860658332</v>
       </c>
       <c r="D88">
-        <v>-0.04740680177134721</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04997020375050309</v>
+      </c>
+      <c r="E88">
+        <v>0.02443162058380429</v>
+      </c>
+      <c r="F88">
+        <v>-0.01409125878453177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1163537013138354</v>
+        <v>0.1290786658044874</v>
       </c>
       <c r="C89">
-        <v>0.001035164513714871</v>
+        <v>-0.01352333075026619</v>
       </c>
       <c r="D89">
-        <v>0.2747946500465662</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2454726682195848</v>
+      </c>
+      <c r="E89">
+        <v>-0.08922478334896398</v>
+      </c>
+      <c r="F89">
+        <v>0.009472718860224424</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1296978245250438</v>
+        <v>0.1512784975272372</v>
       </c>
       <c r="C90">
-        <v>-0.01754472564181284</v>
+        <v>-0.0342751219751268</v>
       </c>
       <c r="D90">
-        <v>0.2906461485808844</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2709834360241425</v>
+      </c>
+      <c r="E90">
+        <v>-0.1138594842962574</v>
+      </c>
+      <c r="F90">
+        <v>0.009057312432081473</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1204634046079324</v>
+        <v>0.1213617182127874</v>
       </c>
       <c r="C91">
-        <v>-0.01763128765535883</v>
+        <v>-0.02000426414840899</v>
       </c>
       <c r="D91">
-        <v>-0.0008551417308502158</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0154926577506459</v>
+      </c>
+      <c r="E91">
+        <v>0.05553342137678786</v>
+      </c>
+      <c r="F91">
+        <v>-2.635386369386703e-05</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1408769929345052</v>
+        <v>0.1476328007918982</v>
       </c>
       <c r="C92">
-        <v>-0.006112203059412182</v>
+        <v>-0.02482879212994329</v>
       </c>
       <c r="D92">
-        <v>0.3176779379280187</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2908546317470771</v>
+      </c>
+      <c r="E92">
+        <v>-0.101458103190279</v>
+      </c>
+      <c r="F92">
+        <v>0.01342837909059062</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1346943680122776</v>
+        <v>0.1512703644516938</v>
       </c>
       <c r="C93">
-        <v>-0.01330834441031243</v>
+        <v>-0.02929541353444891</v>
       </c>
       <c r="D93">
-        <v>0.2796994787399698</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2675869404896749</v>
+      </c>
+      <c r="E93">
+        <v>-0.07804081031478421</v>
+      </c>
+      <c r="F93">
+        <v>-0.002194866758028991</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1348293708972575</v>
+        <v>0.1285657917572923</v>
       </c>
       <c r="C94">
-        <v>-0.02602112923165433</v>
+        <v>-0.02472909735903478</v>
       </c>
       <c r="D94">
-        <v>-0.05774230365182111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04123348452664884</v>
+      </c>
+      <c r="E94">
+        <v>0.0573542839865882</v>
+      </c>
+      <c r="F94">
+        <v>-0.03615916217172219</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.128499902720057</v>
+        <v>0.1267391262135647</v>
       </c>
       <c r="C95">
-        <v>-0.0114429854437458</v>
+        <v>-0.003229595121783549</v>
       </c>
       <c r="D95">
-        <v>-0.07047771031207413</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09494139831158646</v>
+      </c>
+      <c r="E95">
+        <v>0.05014880983570089</v>
+      </c>
+      <c r="F95">
+        <v>0.007993193683429465</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1129954961426546</v>
+        <v>0.1094450351053242</v>
       </c>
       <c r="C96">
-        <v>0.9882288711696633</v>
+        <v>0.9870586363947247</v>
       </c>
       <c r="D96">
-        <v>-0.009683623135272079</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05176931196692447</v>
+      </c>
+      <c r="E96">
+        <v>0.05267517720456612</v>
+      </c>
+      <c r="F96">
+        <v>-0.0427268957448966</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1906925089141887</v>
+        <v>0.1907038635668918</v>
       </c>
       <c r="C97">
-        <v>0.00658388683357926</v>
+        <v>0.007012852346350283</v>
       </c>
       <c r="D97">
-        <v>0.03851800271985821</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01926152326706763</v>
+      </c>
+      <c r="E97">
+        <v>0.02221988485235733</v>
+      </c>
+      <c r="F97">
+        <v>0.09498861670881485</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1951699198750872</v>
+        <v>0.2058934417774732</v>
       </c>
       <c r="C98">
-        <v>-0.01031183479029488</v>
+        <v>-0.007156362209205245</v>
       </c>
       <c r="D98">
-        <v>-0.002728716019640493</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01299618235873406</v>
+      </c>
+      <c r="E98">
+        <v>-0.0775963398409269</v>
+      </c>
+      <c r="F98">
+        <v>0.09287321421422846</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05456229322500559</v>
+        <v>0.0548144087019776</v>
       </c>
       <c r="C99">
-        <v>0.001848474772347768</v>
+        <v>0.004491930906314594</v>
       </c>
       <c r="D99">
-        <v>-0.0211443927134185</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03929253084477683</v>
+      </c>
+      <c r="E99">
+        <v>0.02200928628865546</v>
+      </c>
+      <c r="F99">
+        <v>-0.003502467131700214</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1328419645400414</v>
+        <v>0.1282644257082037</v>
       </c>
       <c r="C100">
-        <v>0.02881735358231938</v>
+        <v>0.05331430402167545</v>
       </c>
       <c r="D100">
-        <v>-0.3550278818889497</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3466765614349727</v>
+      </c>
+      <c r="E100">
+        <v>-0.8853706961621106</v>
+      </c>
+      <c r="F100">
+        <v>0.1588027555258646</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02755048381719676</v>
+        <v>0.02847541972407423</v>
       </c>
       <c r="C101">
-        <v>-0.009982201198972232</v>
+        <v>-0.00869390033549902</v>
       </c>
       <c r="D101">
-        <v>-0.02020991552393394</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0309099309744072</v>
+      </c>
+      <c r="E101">
+        <v>0.01309135304793881</v>
+      </c>
+      <c r="F101">
+        <v>0.01419294610128344</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
